--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2584,27 +2584,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/4/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NEWBERY JORGE /ALT/ 3323</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2617,58 +2617,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en base sin riego </t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>-58.447732</v>
+        <v>-58.474354</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.580408</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2683,48 +2675,60 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M41" t="n">
-        <v>-58.474354</v>
+        <v>-58.479695</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.629997</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>RINCON /ALT/ 645</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802269060</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2737,11 +2741,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Pasante con priroidad</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>1</t>
@@ -2763,16 +2763,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.479695</v>
+        <v>-58.396131</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.622867</v>
+        <v>-34.616584</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-251</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2782,17 +2782,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 645</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802269060</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2827,36 +2827,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.396131</v>
+        <v>-58.369292</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.616584</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.369292</v>
+        <v>-58.442667</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.631678</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-256</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2910,17 +2910,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>NECOCHEA /ALT/ 1279</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>802394092</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2933,7 +2933,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>1</t>
@@ -2946,7 +2950,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2955,36 +2959,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.442667</v>
+        <v>-58.357221</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.597977</v>
+        <v>-34.635473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-256</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NECOCHEA /ALT/ 1279</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>802394092</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3023,36 +3027,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.357221</v>
+        <v>-58.452317</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.635473</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3065,11 +3069,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>1</t>
@@ -3091,16 +3091,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.452317</v>
+        <v>-58.383027</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.567846</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3133,7 +3133,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Base picada</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>1</t>
@@ -3155,36 +3159,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.383027</v>
+        <v>-58.480871</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.618818</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3199,7 +3203,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3223,36 +3227,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.480871</v>
+        <v>-58.407076</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.616598</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>-282</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DEAN FUNES /ALT/ 481</t>
+          <t>ALBARINO /ALT/ 1327</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106572 - MATADEROS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>803039902</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3267,12 +3271,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3291,36 +3295,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.407076</v>
+        <v>-58.496341</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.616016</v>
+        <v>-34.650532</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-282</t>
+          <t>-389</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALBARINO /ALT/ 1327</t>
+          <t>AZARA /ALT/ 15</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106572 - MATADEROS</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3333,14 +3337,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Podrida en la base</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3359,73 +3359,9 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.496341</v>
+        <v>-58.372751</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.650532</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>-389</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>AZARA /ALT/ 15</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>106561 - BARRACAS</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N52" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -1860,7 +1860,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3858</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar en calle Correa 3858 podrida en base. Solicita Mariano Labonia.</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3236,27 +3236,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-282</t>
+          <t>-389</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALBARINO /ALT/ 1327</t>
+          <t>AZARA /ALT/ 15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106572 - MATADEROS</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3269,14 +3269,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Podrida en la base</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3295,73 +3291,9 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.496341</v>
+        <v>-58.372751</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.650532</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>-389</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>AZARA /ALT/ 15</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>106561 - BARRACAS</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N51" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-389</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 3262</t>
+          <t>AZARA /ALT/ 15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,43 +544,55 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M2" t="n">
-        <v>-58.450827</v>
+        <v>-58.372751</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.578021</v>
+        <v>-34.631917</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/6/2024</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONSTITUCION /ALT/ 1739</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>780027603</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -595,48 +607,60 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Direccion correcta 1736</t>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M3" t="n">
-        <v>-58.390269</v>
+        <v>-58.407076</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.625079</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/7/2024</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FRENCH /ALT/ 2380</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>780043028</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -652,43 +676,55 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M4" t="n">
-        <v>-58.39894</v>
+        <v>-58.383027</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.591084</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2/20/2024</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 4686</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>780335892</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -703,38 +739,50 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M5" t="n">
-        <v>-58.495436</v>
+        <v>-58.480871</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.55025</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/20/2024</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ZABALA /ALT/ 2836</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -744,7 +792,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>780340125</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -759,48 +807,60 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ZABALA 2836 - Reemplazar C114</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M6" t="n">
-        <v>-58.452298</v>
+        <v>-58.452317</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.572157</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3/11/2024</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>781392461</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -813,50 +873,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M7" t="n">
-        <v>-58.390198</v>
+        <v>-58.442667</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.637568</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-256</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5/3/2024</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AGUERO /ALT/ 2310</t>
+          <t>NECOCHEA /ALT/ 1279</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>784675618</t>
+          <t>802394092</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -869,46 +937,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M8" t="n">
-        <v>-58.400047</v>
+        <v>-58.357221</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.586358</v>
+        <v>-34.635473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5/3/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 3696</t>
+          <t>RINCON /ALT/ 645</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>784675639</t>
+          <t>802269060</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -921,50 +1005,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Para cambiar columna fte al 3688</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M9" t="n">
-        <v>-58.499823</v>
+        <v>-58.396131</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.563809</v>
+        <v>-34.616584</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-100</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6/11/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 1416</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>788000212</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -977,50 +1069,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Cambio de columna.-</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.386058</v>
+        <v>-58.369292</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.621209</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-105</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6/24/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>789151020</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1035,48 +1135,60 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>recambio de columna podrida en la base</t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.395465</v>
+        <v>-58.479695</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.622784</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-109</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7/8/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>790175801</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1089,11 +1201,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Cambio de columna.-</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>0</t>
@@ -1103,36 +1211,36 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-58.394079</v>
+        <v>-58.413407</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.61051</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7/12/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CATAMARCA /ALT/ 1127</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>790298182</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1147,7 +1255,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cambio de columna.-</t>
+          <t xml:space="preserve">Podrida en base sin riego </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1159,36 +1267,36 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>-58.404265</v>
+        <v>-58.474354</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.623154</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/1/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2065</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>797398473</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1201,7 +1309,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Colocar columna medianera 213/15</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>0</t>
@@ -1211,36 +1323,36 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-58.395184</v>
+        <v>-58.439714</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621686</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-145</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/8/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2849</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>797811738</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1263,36 +1375,36 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.405077</v>
+        <v>-58.471173</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.622822</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>11/4/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WARNES ,AV. /ALT/ 1605</t>
+          <t>CESPEDES /ALT/ 3053</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106583 - CHACARITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>798984631</t>
+          <t>799124270</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1315,16 +1427,16 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.458267</v>
+        <v>-58.452409</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.596836</v>
+        <v>-34.574767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-161</t>
+          <t>-159</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1334,17 +1446,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>URQUIZA 1692</t>
+          <t>WARNES ,AV. /ALT/ 1605</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106583 - CHACARITA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>798985154</t>
+          <t>798984631</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1367,36 +1479,36 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.408201</v>
+        <v>-58.458267</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.630629</v>
+        <v>-34.596836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-162</t>
+          <t>-161</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/4/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CESPEDES /ALT/ 3053</t>
+          <t>URQUIZA 1692</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799124270</t>
+          <t>798985154</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1419,36 +1531,36 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.452409</v>
+        <v>-58.408201</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574767</v>
+        <v>-34.630629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-171</t>
+          <t>-145</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>10/8/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLAVARRIA /ALT/ 531</t>
+          <t>HUMBERTO PRIMO /ALT/ 2849</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539423</t>
+          <t>797811738</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1461,11 +1573,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste metal cv con corrosión en base </t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>0</t>
@@ -1475,26 +1583,26 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.360337</v>
+        <v>-58.405077</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.63687</v>
+        <v>-34.622822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-172</t>
+          <t>-140</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>10/1/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 847</t>
+          <t>HUMBERTO PRIMO /ALT/ 2065</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1504,7 +1612,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539432</t>
+          <t>797398473</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1517,11 +1625,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1531,36 +1635,36 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.396012</v>
+        <v>-58.395184</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.619111</v>
+        <v>-34.621686</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1575,7 +1679,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1587,36 +1691,36 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.397535</v>
+        <v>-58.395465</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.588772</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-111</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>7/12/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>CATAMARCA /ALT/ 1127</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>790298182</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1631,7 +1735,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1643,36 +1747,36 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.390647</v>
+        <v>-58.404265</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.587717</v>
+        <v>-34.623154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-109</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>7/8/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>790175801</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1687,7 +1791,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1699,36 +1803,36 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.412993</v>
+        <v>-58.394079</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.641044</v>
+        <v>-34.61051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-105</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>6/24/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799539772</t>
+          <t>789151020</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1743,7 +1847,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
+          <t>recambio de columna podrida en la base</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1755,36 +1859,36 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.488262</v>
+        <v>-58.395465</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.631542</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-100</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>6/11/2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>HUMBERTO PRIMO /ALT/ 1416</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>788000212</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1799,7 +1903,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1811,36 +1915,36 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.477557</v>
+        <v>-58.386058</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.622154</v>
+        <v>-34.621209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/3/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>AGUERO /ALT/ 2310</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>784675618</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1853,50 +1957,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>- alt correcta 704</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.448465</v>
+        <v>-58.400047</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.575944</v>
+        <v>-34.586358</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/3/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JUFRE /ALT/ 697</t>
+          <t>ANDONAEGUI /ALT/ 3696</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799539833</t>
+          <t>784675639</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1911,7 +2011,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Recambio de columna  - alt correcta 690</t>
+          <t>Para cambiar columna fte al 3688</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1923,36 +2023,36 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.434727</v>
+        <v>-58.499823</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.593053</v>
+        <v>-34.563809</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-191</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>3/11/2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
+          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799539921</t>
+          <t>781392461</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1967,7 +2067,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
+          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1979,26 +2079,26 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.469143</v>
+        <v>-58.390198</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.610581</v>
+        <v>-34.637568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/20/2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>PICO /ALT/ 4686</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2008,7 +2108,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>780335892</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2023,7 +2123,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
+          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2035,36 +2135,36 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.485782</v>
+        <v>-58.495436</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.547305</v>
+        <v>-34.55025</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/20/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>ZABALA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>780340125</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2079,48 +2179,48 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna picada en base, informa el GCBA</t>
+          <t>ZABALA 2836 - Reemplazar C114</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.486971</v>
+        <v>-58.452298</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.550135</v>
+        <v>-34.572157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/7/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>FRENCH /ALT/ 2380</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>780043028</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2143,36 +2243,36 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.500508</v>
+        <v>-58.39894</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.563097</v>
+        <v>-34.591084</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/6/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>CONSTITUCION /ALT/ 1739</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>780027603</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2285,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Direccion correcta 1736</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2195,36 +2299,36 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.484555</v>
+        <v>-58.390269</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.547242</v>
+        <v>-34.625079</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>GARCIA TEODORO /ALT/ 3262</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2237,11 +2341,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
@@ -2251,16 +2351,16 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.493565</v>
+        <v>-58.450827</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.554439</v>
+        <v>-34.578021</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-171</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2270,17 +2370,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>OLAVARRIA /ALT/ 531</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>799539423</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2293,7 +2393,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste metal cv con corrosión en base </t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>0</t>
@@ -2303,16 +2407,16 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>-58.480334</v>
+        <v>-58.360337</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.556445</v>
+        <v>-34.63687</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-172</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2322,17 +2426,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>RINCON /ALT/ 847</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>799539432</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2347,7 +2451,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2359,36 +2463,36 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>-58.466988</v>
+        <v>-58.396012</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.537094</v>
+        <v>-34.619111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2401,7 +2505,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>0</t>
@@ -2411,36 +2519,36 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-58.471173</v>
+        <v>-58.397535</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.60704</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2455,7 +2563,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2467,36 +2575,36 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-58.395465</v>
+        <v>-58.390647</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.622784</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>USPALLATA /ALT/ 3504</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106563 - NUEVA POMPEYA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>799539706</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2511,7 +2619,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna medianera 213/15</t>
+          <t>poste inclinado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2523,36 +2631,36 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-58.439714</v>
+        <v>-58.412993</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.600565</v>
+        <v>-34.641044</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-185</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>799539772</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2565,7 +2673,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>0</t>
@@ -2575,36 +2687,36 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>-58.413407</v>
+        <v>-58.488262</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.602292</v>
+        <v>-34.631542</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2619,7 +2731,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2631,36 +2743,36 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>-58.474354</v>
+        <v>-58.477557</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.629997</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2675,7 +2787,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pasante con priroidad</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2683,52 +2795,40 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>-58.479695</v>
+        <v>-58.448465</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.622867</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-251</t>
+          <t>-188</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 645</t>
+          <t>JUFRE /ALT/ 697</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802269060</t>
+          <t>799539833</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2741,58 +2841,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Recambio de columna  - alt correcta 690</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>-58.396131</v>
+        <v>-58.434727</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.616584</v>
+        <v>-34.593053</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-191</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>799539921</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2805,58 +2897,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>-58.369292</v>
+        <v>-58.469143</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.631678</v>
+        <v>-34.610581</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2869,58 +2953,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Nodo/Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>-58.442667</v>
+        <v>-58.485782</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.597977</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-256</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NECOCHEA /ALT/ 1279</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802394092</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2935,7 +3011,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2943,52 +3019,40 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>-58.357221</v>
+        <v>-58.486971</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.635473</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3001,62 +3065,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>-58.452317</v>
+        <v>-58.500508</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.567846</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3072,55 +3120,43 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>-58.383027</v>
+        <v>-58.484555</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.618818</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3135,60 +3171,48 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>-58.480871</v>
+        <v>-58.493565</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.616598</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DEAN FUNES /ALT/ 481</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>803039902</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3201,62 +3225,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>-58.407076</v>
+        <v>-58.480334</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.616016</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-389</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AZARA /ALT/ 15</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3269,32 +3277,24 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>-58.372751</v>
+        <v>-58.466988</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.631917</v>
+        <v>-34.537094</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-389</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AZARA /ALT/ 15</t>
+          <t>GARCIA TEODORO /ALT/ 3262</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -544,55 +544,43 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>-58.372751</v>
+        <v>-58.450827</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.631917</v>
+        <v>-34.578021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/6/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DEAN FUNES /ALT/ 481</t>
+          <t>CONSTITUCION /ALT/ 1739</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>803039902</t>
+          <t>780027603</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -607,60 +595,48 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
+          <t>Direccion correcta 1736</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.407076</v>
+        <v>-58.390269</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.616016</v>
+        <v>-34.625079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/7/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>FRENCH /ALT/ 2380</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>780043028</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -676,55 +652,43 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-58.383027</v>
+        <v>-58.39894</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.618818</v>
+        <v>-34.591084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/20/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>PICO /ALT/ 4686</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>780335892</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,50 +703,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.480871</v>
+        <v>-58.495436</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.616598</v>
+        <v>-34.55025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>2/20/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>ZABALA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -792,7 +744,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>780340125</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -807,60 +759,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>ZABALA 2836 - Reemplazar C114</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.452317</v>
+        <v>-58.452298</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.567846</v>
+        <v>-34.572157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>3/11/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>781392461</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -873,58 +813,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Nodo/Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.442667</v>
+        <v>-58.390198</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.597977</v>
+        <v>-34.637568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-256</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>5/3/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NECOCHEA /ALT/ 1279</t>
+          <t>AGUERO /ALT/ 2310</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>802394092</t>
+          <t>784675618</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -937,62 +869,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.357221</v>
+        <v>-58.400047</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.635473</v>
+        <v>-34.586358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-251</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>5/3/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 645</t>
+          <t>ANDONAEGUI /ALT/ 3696</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>802269060</t>
+          <t>784675639</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1005,58 +921,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Para cambiar columna fte al 3688</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.396131</v>
+        <v>-58.499823</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.616584</v>
+        <v>-34.563809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>6/11/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>HUMBERTO PRIMO /ALT/ 1416</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>788000212</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1069,58 +977,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cambio de columna.-</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.369292</v>
+        <v>-58.386058</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.631678</v>
+        <v>-34.621209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-105</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>6/24/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>789151020</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1135,60 +1035,48 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pasante con priroidad</t>
+          <t>recambio de columna podrida en la base</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.479695</v>
+        <v>-58.395465</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.622867</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-109</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>7/8/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>790175801</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1201,7 +1089,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cambio de columna.-</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>0</t>
@@ -1211,36 +1103,36 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-58.413407</v>
+        <v>-58.394079</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.602292</v>
+        <v>-34.61051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-111</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>7/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CATAMARCA /ALT/ 1127</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>790298182</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1255,7 +1147,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1267,36 +1159,36 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>-58.474354</v>
+        <v>-58.404265</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.629997</v>
+        <v>-34.623154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-140</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>10/1/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>HUMBERTO PRIMO /ALT/ 2065</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>797398473</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,11 +1201,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Colocar columna medianera 213/15</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>0</t>
@@ -1323,36 +1211,36 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-58.439714</v>
+        <v>-58.395184</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.600565</v>
+        <v>-34.621686</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-145</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>10/8/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>HUMBERTO PRIMO /ALT/ 2849</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>797811738</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1375,36 +1263,36 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.471173</v>
+        <v>-58.405077</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.60704</v>
+        <v>-34.622822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-162</t>
+          <t>-159</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/4/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CESPEDES /ALT/ 3053</t>
+          <t>WARNES ,AV. /ALT/ 1605</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106583 - CHACARITA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799124270</t>
+          <t>798984631</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1427,16 +1315,16 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.452409</v>
+        <v>-58.458267</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.574767</v>
+        <v>-34.596836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-161</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1446,17 +1334,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WARNES ,AV. /ALT/ 1605</t>
+          <t>URQUIZA 1692</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106583 - CHACARITA</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>798984631</t>
+          <t>798985154</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1479,36 +1367,36 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.458267</v>
+        <v>-58.408201</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.596836</v>
+        <v>-34.630629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-161</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>11/4/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>URQUIZA 1692</t>
+          <t>CESPEDES /ALT/ 3053</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>798985154</t>
+          <t>799124270</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1531,36 +1419,36 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.408201</v>
+        <v>-58.452409</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.630629</v>
+        <v>-34.574767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-145</t>
+          <t>-171</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10/8/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2849</t>
+          <t>OLAVARRIA /ALT/ 531</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>797811738</t>
+          <t>799539423</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1573,7 +1461,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste metal cv con corrosión en base </t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>0</t>
@@ -1583,26 +1475,26 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.405077</v>
+        <v>-58.360337</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.622822</v>
+        <v>-34.63687</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>-172</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2065</t>
+          <t>RINCON /ALT/ 847</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1612,7 +1504,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>797398473</t>
+          <t>799539432</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1625,7 +1517,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1635,36 +1531,36 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.395184</v>
+        <v>-58.396012</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.621686</v>
+        <v>-34.619111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1679,7 +1575,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1691,36 +1587,36 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.395465</v>
+        <v>-58.397535</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.622784</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7/12/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CATAMARCA /ALT/ 1127</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>790298182</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1735,7 +1631,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cambio de columna.-</t>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1747,36 +1643,36 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.404265</v>
+        <v>-58.390647</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.623154</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-109</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7/8/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
+          <t>USPALLATA /ALT/ 3504</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106563 - NUEVA POMPEYA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>790175801</t>
+          <t>799539706</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1791,7 +1687,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cambio de columna.-</t>
+          <t>poste inclinado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1803,36 +1699,36 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.394079</v>
+        <v>-58.412993</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.61051</v>
+        <v>-34.641044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-105</t>
+          <t>-185</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6/24/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>789151020</t>
+          <t>799539772</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1847,7 +1743,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>recambio de columna podrida en la base</t>
+          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1859,36 +1755,36 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.395465</v>
+        <v>-58.488262</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.622784</v>
+        <v>-34.631542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-100</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6/11/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 1416</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>788000212</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1903,7 +1799,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cambio de columna.-</t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1915,36 +1811,36 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.386058</v>
+        <v>-58.477557</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.621209</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/3/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AGUERO /ALT/ 2310</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>784675618</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1957,46 +1853,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>- alt correcta 704</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.400047</v>
+        <v>-58.448465</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.586358</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-188</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5/3/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 3696</t>
+          <t>JUFRE /ALT/ 697</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>784675639</t>
+          <t>799539833</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2011,7 +1911,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Para cambiar columna fte al 3688</t>
+          <t>Recambio de columna  - alt correcta 690</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2023,36 +1923,36 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.499823</v>
+        <v>-58.434727</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.563809</v>
+        <v>-34.593053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-191</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/11/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
+          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>781392461</t>
+          <t>799539921</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2067,7 +1967,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
+          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2079,26 +1979,26 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.390198</v>
+        <v>-58.469143</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.637568</v>
+        <v>-34.610581</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2/20/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 4686</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2108,7 +2008,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>780335892</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2123,7 +2023,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2135,36 +2035,36 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.495436</v>
+        <v>-58.485782</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.55025</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2/20/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ZABALA /ALT/ 2836</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>780340125</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2179,48 +2079,48 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ZABALA 2836 - Reemplazar C114</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.452298</v>
+        <v>-58.486971</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.572157</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2/7/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FRENCH /ALT/ 2380</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>780043028</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2243,36 +2143,36 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.39894</v>
+        <v>-58.500508</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.591084</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2/6/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CONSTITUCION /ALT/ 1739</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>780027603</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2285,11 +2185,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Direccion correcta 1736</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2299,36 +2195,36 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.390269</v>
+        <v>-58.484555</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.625079</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 3262</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2341,7 +2237,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
@@ -2351,16 +2251,16 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.450827</v>
+        <v>-58.493565</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.578021</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-171</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2370,17 +2270,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>OLAVARRIA /ALT/ 531</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>799539423</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2393,11 +2293,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste metal cv con corrosión en base </t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>0</t>
@@ -2407,16 +2303,16 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>-58.360337</v>
+        <v>-58.480334</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.63687</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-172</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2426,17 +2322,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 847</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>799539432</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2451,7 +2347,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2463,36 +2359,36 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>-58.396012</v>
+        <v>-58.466988</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.619111</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2505,11 +2401,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
           <t>0</t>
@@ -2519,36 +2411,36 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-58.397535</v>
+        <v>-58.471173</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.588772</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2563,7 +2455,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2575,36 +2467,36 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-58.390647</v>
+        <v>-58.395465</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.587717</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2619,7 +2511,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2631,36 +2523,36 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-58.412993</v>
+        <v>-58.439714</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.641044</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>799539772</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2673,11 +2565,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>0</t>
@@ -2687,36 +2575,36 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>-58.488262</v>
+        <v>-58.413407</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.631542</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2731,7 +2619,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t xml:space="preserve">Podrida en base sin riego </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2743,36 +2631,36 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>-58.477557</v>
+        <v>-58.474354</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.622154</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2787,7 +2675,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>- alt correcta 704</t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2795,40 +2683,52 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M41" t="n">
-        <v>-58.448465</v>
+        <v>-58.479695</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.575944</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JUFRE /ALT/ 697</t>
+          <t>RINCON /ALT/ 645</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>799539833</t>
+          <t>802269060</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2841,50 +2741,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Recambio de columna  - alt correcta 690</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M42" t="n">
-        <v>-58.434727</v>
+        <v>-58.396131</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.593053</v>
+        <v>-34.616584</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-191</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>799539921</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2897,50 +2805,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M43" t="n">
-        <v>-58.469143</v>
+        <v>-58.369292</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.610581</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2953,50 +2869,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M44" t="n">
-        <v>-58.485782</v>
+        <v>-58.442667</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.547305</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-256</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>NECOCHEA /ALT/ 1279</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>802394092</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3011,7 +2935,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna picada en base, informa el GCBA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3019,40 +2943,52 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M45" t="n">
-        <v>-58.486971</v>
+        <v>-58.357221</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.550135</v>
+        <v>-34.635473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3065,46 +3001,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M46" t="n">
-        <v>-58.500508</v>
+        <v>-58.452317</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.563097</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3120,43 +3072,55 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M47" t="n">
-        <v>-58.484555</v>
+        <v>-58.383027</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.547242</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3171,48 +3135,60 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M48" t="n">
-        <v>-58.493565</v>
+        <v>-58.480871</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.554439</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3225,46 +3201,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M49" t="n">
-        <v>-58.480334</v>
+        <v>-58.407076</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.556445</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-389</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>AZARA /ALT/ 15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3277,24 +3269,32 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>-58.466988</v>
+        <v>-58.372751</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.537094</v>
+        <v>-34.631917</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -3236,7 +3236,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-389</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AZARA /ALT/ 15</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3269,7 +3269,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>1</t>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,7 +1428,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-171</t>
+          <t>-172</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1438,17 +1438,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLAVARRIA /ALT/ 531</t>
+          <t>RINCON /ALT/ 847</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539423</t>
+          <t>799539432</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal cv con corrosión en base </t>
+          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1475,16 +1475,16 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.360337</v>
+        <v>-58.396012</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.63687</v>
+        <v>-34.619111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-172</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 847</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539432</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1531,16 +1531,16 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.396012</v>
+        <v>-58.397535</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.619111</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1587,16 +1587,16 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.397535</v>
+        <v>-58.390647</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.588772</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>USPALLATA /ALT/ 3504</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106563 - NUEVA POMPEYA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>799539706</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>poste inclinado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1643,16 +1643,16 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.390647</v>
+        <v>-58.412993</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.587717</v>
+        <v>-34.641044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-185</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1662,17 +1662,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>799539772</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1699,16 +1699,16 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.412993</v>
+        <v>-58.488262</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.641044</v>
+        <v>-34.631542</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799539772</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1755,16 +1755,16 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.488262</v>
+        <v>-58.477557</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.631542</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1774,17 +1774,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1799,28 +1799,28 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.477557</v>
+        <v>-58.448465</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.622154</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-188</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1830,17 +1830,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>JUFRE /ALT/ 697</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>799539833</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1855,28 +1855,28 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>- alt correcta 704</t>
+          <t>Recambio de columna  - alt correcta 690</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.448465</v>
+        <v>-58.434727</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.575944</v>
+        <v>-34.593053</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-191</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1886,17 +1886,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JUFRE /ALT/ 697</t>
+          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799539833</t>
+          <t>799539921</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Recambio de columna  - alt correcta 690</t>
+          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1923,16 +1923,16 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.434727</v>
+        <v>-58.469143</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.593053</v>
+        <v>-34.610581</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-191</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1942,17 +1942,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799539921</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1979,16 +1979,16 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.469143</v>
+        <v>-58.485782</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.610581</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2023,28 +2023,28 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.485782</v>
+        <v>-58.486971</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.547305</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2077,30 +2077,26 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Columna picada en base, informa el GCBA</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.486971</v>
+        <v>-58.500508</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.550135</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2110,7 +2106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2120,7 +2116,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2143,16 +2139,16 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.500508</v>
+        <v>-58.484555</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.563097</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2162,7 +2158,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2172,7 +2168,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2181,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2195,16 +2195,16 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.484555</v>
+        <v>-58.493565</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.547242</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2237,11 +2237,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
@@ -2251,16 +2247,16 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.493565</v>
+        <v>-58.480334</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.554439</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2270,17 +2266,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2293,7 +2289,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>0</t>
@@ -2303,36 +2303,36 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>-58.480334</v>
+        <v>-58.466988</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.556445</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2345,11 +2345,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>0</t>
@@ -2359,36 +2355,36 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>-58.466988</v>
+        <v>-58.471173</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.537094</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2401,7 +2397,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>0</t>
@@ -2411,36 +2411,36 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-58.471173</v>
+        <v>-58.395465</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.60704</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2467,36 +2467,36 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-58.395465</v>
+        <v>-58.439714</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.622784</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2509,11 +2509,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Colocar columna medianera 213/15</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>0</t>
@@ -2523,16 +2519,16 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-58.439714</v>
+        <v>-58.413407</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.600565</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2542,17 +2538,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2565,7 +2561,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en base sin riego </t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>0</t>
@@ -2575,36 +2575,36 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>-58.413407</v>
+        <v>-58.474354</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.602292</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2619,48 +2619,60 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M40" t="n">
-        <v>-58.474354</v>
+        <v>-58.479695</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.629997</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>RINCON /ALT/ 645</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802269060</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2673,11 +2685,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Pasante con priroidad</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
           <t>1</t>
@@ -2699,16 +2707,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.479695</v>
+        <v>-58.396131</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.622867</v>
+        <v>-34.616584</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-251</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2718,17 +2726,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 645</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802269060</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2763,36 +2771,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.396131</v>
+        <v>-58.369292</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.616584</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2818,7 +2826,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2827,36 +2835,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.369292</v>
+        <v>-58.442667</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.631678</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2869,7 +2877,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
@@ -2882,7 +2894,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2891,36 +2903,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.442667</v>
+        <v>-58.452317</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.597977</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-256</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NECOCHEA /ALT/ 1279</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802394092</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2933,11 +2945,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
           <t>1</t>
@@ -2959,36 +2967,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.357221</v>
+        <v>-58.383027</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.635473</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3003,7 +3011,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3027,36 +3035,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.452317</v>
+        <v>-58.480871</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.567846</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3069,7 +3077,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>1</t>
@@ -3091,36 +3103,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.383027</v>
+        <v>-58.407076</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.618818</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3135,7 +3147,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3159,145 +3171,9 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.480871</v>
+        <v>-58.372751</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.616598</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>-275</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2/3/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DEAN FUNES /ALT/ 481</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>106558 - BALVANERA</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>803039902</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.407076</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.616016</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>AZARA 15</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N50" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>2/6/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 3262</t>
+          <t>CONSTITUCION /ALT/ 1739</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>780027603</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Direccion correcta 1736</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>0</t>
@@ -551,36 +555,36 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>-58.450827</v>
+        <v>-58.390269</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.578021</v>
+        <v>-34.625079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/6/2024</t>
+          <t>2/7/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONSTITUCION /ALT/ 1739</t>
+          <t>FRENCH /ALT/ 2380</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>780027603</t>
+          <t>780043028</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -593,11 +597,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Direccion correcta 1736</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>0</t>
@@ -607,36 +607,36 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.390269</v>
+        <v>-58.39894</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.625079</v>
+        <v>-34.591084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/7/2024</t>
+          <t>2/20/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FRENCH /ALT/ 2380</t>
+          <t>PICO /ALT/ 4686</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>780043028</t>
+          <t>780335892</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -649,7 +649,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>0</t>
@@ -659,16 +663,16 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-58.39894</v>
+        <v>-58.495436</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.591084</v>
+        <v>-34.55025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -678,17 +682,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 4686</t>
+          <t>ZABALA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>780335892</t>
+          <t>780340125</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -703,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
+          <t>ZABALA 2836 - Reemplazar C114</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -715,36 +719,36 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.495436</v>
+        <v>-58.452298</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.55025</v>
+        <v>-34.572157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/20/2024</t>
+          <t>3/11/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ZABALA /ALT/ 2836</t>
+          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>780340125</t>
+          <t>781392461</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -759,7 +763,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ZABALA 2836 - Reemplazar C114</t>
+          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -771,36 +775,36 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.452298</v>
+        <v>-58.390198</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.572157</v>
+        <v>-34.637568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3/11/2024</t>
+          <t>5/3/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD ,AV. /ALT/ 299</t>
+          <t>AGUERO /ALT/ 2310</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>781392461</t>
+          <t>784675618</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -813,11 +817,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>0</t>
@@ -827,16 +827,16 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.390198</v>
+        <v>-58.400047</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.637568</v>
+        <v>-34.586358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -846,17 +846,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AGUERO /ALT/ 2310</t>
+          <t>ANDONAEGUI /ALT/ 3696</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>784675618</t>
+          <t>784675639</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -869,7 +869,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Para cambiar columna fte al 3688</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>0</t>
@@ -879,36 +883,36 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.400047</v>
+        <v>-58.499823</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.586358</v>
+        <v>-34.563809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5/3/2024</t>
+          <t>6/11/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 3696</t>
+          <t>HUMBERTO PRIMO /ALT/ 1416</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>784675639</t>
+          <t>788000212</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -923,7 +927,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Para cambiar columna fte al 3688</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -935,36 +939,36 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.499823</v>
+        <v>-58.386058</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.563809</v>
+        <v>-34.621209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-100</t>
+          <t>-105</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6/11/2024</t>
+          <t>6/24/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 1416</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>788000212</t>
+          <t>789151020</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -979,7 +983,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cambio de columna.-</t>
+          <t>recambio de columna podrida en la base</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -991,36 +995,36 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.386058</v>
+        <v>-58.395465</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.621209</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-105</t>
+          <t>-109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6/24/2024</t>
+          <t>7/8/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>789151020</t>
+          <t>790175801</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1035,7 +1039,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>recambio de columna podrida en la base</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1047,36 +1051,36 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.395465</v>
+        <v>-58.394079</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.622784</v>
+        <v>-34.61051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-109</t>
+          <t>-111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7/8/2024</t>
+          <t>7/12/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YRIGOYEN HIPOLITO /ALT/ 1938</t>
+          <t>CATAMARCA /ALT/ 1127</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>790175801</t>
+          <t>790298182</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1103,26 +1107,26 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-58.394079</v>
+        <v>-58.404265</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.61051</v>
+        <v>-34.623154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7/12/2024</t>
+          <t>10/1/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CATAMARCA /ALT/ 1127</t>
+          <t>HUMBERTO PRIMO /ALT/ 2065</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1132,7 +1136,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>790298182</t>
+          <t>797398473</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1145,11 +1149,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Cambio de columna.-</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>0</t>
@@ -1159,26 +1159,26 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>-58.404265</v>
+        <v>-58.395184</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.623154</v>
+        <v>-34.621686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>-145</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/1/2024</t>
+          <t>10/8/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2065</t>
+          <t>HUMBERTO PRIMO /ALT/ 2849</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>797398473</t>
+          <t>797811738</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1211,36 +1211,36 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-58.395184</v>
+        <v>-58.405077</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621686</v>
+        <v>-34.622822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-145</t>
+          <t>-159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/8/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2849</t>
+          <t>WARNES ,AV. /ALT/ 1605</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106583 - CHACARITA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>797811738</t>
+          <t>798984631</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1263,16 +1263,16 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.405077</v>
+        <v>-58.458267</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.622822</v>
+        <v>-34.596836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-161</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WARNES ,AV. /ALT/ 1605</t>
+          <t>URQUIZA 1692</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106583 - CHACARITA</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>798984631</t>
+          <t>798985154</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1315,36 +1315,36 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.458267</v>
+        <v>-58.408201</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.596836</v>
+        <v>-34.630629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-161</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>11/4/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>URQUIZA 1692</t>
+          <t>CESPEDES /ALT/ 3053</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>798985154</t>
+          <t>799124270</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1367,36 +1367,36 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.408201</v>
+        <v>-58.452409</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.630629</v>
+        <v>-34.574767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-162</t>
+          <t>-172</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/4/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CESPEDES /ALT/ 3053</t>
+          <t>RINCON /ALT/ 847</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799124270</t>
+          <t>799539432</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1409,7 +1409,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>0</t>
@@ -1419,16 +1423,16 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.452409</v>
+        <v>-58.396012</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.574767</v>
+        <v>-34.619111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-172</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1438,17 +1442,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 847</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539432</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1463,7 +1467,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1475,16 +1479,16 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.396012</v>
+        <v>-58.397535</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.619111</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1494,7 +1498,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1504,7 +1508,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1519,7 +1523,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1531,16 +1535,16 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.397535</v>
+        <v>-58.390647</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.588772</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1550,17 +1554,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>USPALLATA /ALT/ 3504</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106563 - NUEVA POMPEYA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>799539706</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1575,7 +1579,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>poste inclinado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1587,16 +1591,16 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.390647</v>
+        <v>-58.412993</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.587717</v>
+        <v>-34.641044</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-185</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1606,17 +1610,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>799539772</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1631,7 +1635,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1643,16 +1647,16 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.412993</v>
+        <v>-58.488262</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.641044</v>
+        <v>-34.631542</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1662,17 +1666,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799539772</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1687,7 +1691,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1699,16 +1703,16 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.488262</v>
+        <v>-58.477557</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.631542</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1718,17 +1722,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1743,28 +1747,28 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.477557</v>
+        <v>-58.448465</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.622154</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-188</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1774,17 +1778,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>JUFRE /ALT/ 697</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>799539833</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1799,28 +1803,28 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>- alt correcta 704</t>
+          <t>Recambio de columna  - alt correcta 690</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.448465</v>
+        <v>-58.434727</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.575944</v>
+        <v>-34.593053</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-191</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1830,17 +1834,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JUFRE /ALT/ 697</t>
+          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799539833</t>
+          <t>799539921</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1855,7 +1859,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Recambio de columna  - alt correcta 690</t>
+          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1867,16 +1871,16 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.434727</v>
+        <v>-58.469143</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.593053</v>
+        <v>-34.610581</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-191</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1886,17 +1890,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799539921</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1911,7 +1915,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1923,16 +1927,16 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.469143</v>
+        <v>-58.485782</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.610581</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1942,7 +1946,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1952,7 +1956,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1967,28 +1971,28 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.485782</v>
+        <v>-58.486971</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.547305</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1998,7 +2002,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2008,7 +2012,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2021,30 +2025,26 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Columna picada en base, informa el GCBA</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.486971</v>
+        <v>-58.500508</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.550135</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2087,16 +2087,16 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.500508</v>
+        <v>-58.484555</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.563097</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2129,7 +2129,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>0</t>
@@ -2139,16 +2143,16 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.484555</v>
+        <v>-58.493565</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.547242</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2158,7 +2162,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2168,7 +2172,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2181,11 +2185,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2195,16 +2195,16 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.493565</v>
+        <v>-58.480334</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.554439</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2214,17 +2214,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2237,7 +2237,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
@@ -2247,36 +2251,36 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.480334</v>
+        <v>-58.466988</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.556445</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2289,11 +2293,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>0</t>
@@ -2303,36 +2303,36 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>-58.466988</v>
+        <v>-58.471173</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.537094</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2345,7 +2345,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>0</t>
@@ -2355,36 +2359,36 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>-58.471173</v>
+        <v>-58.395465</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.60704</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2399,7 +2403,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2411,36 +2415,36 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-58.395465</v>
+        <v>-58.439714</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.622784</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2453,11 +2457,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Colocar columna medianera 213/15</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>0</t>
@@ -2467,16 +2467,16 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-58.439714</v>
+        <v>-58.413407</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.600565</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2486,17 +2486,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2509,7 +2509,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en base sin riego </t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>0</t>
@@ -2519,36 +2523,36 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-58.413407</v>
+        <v>-58.474354</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.602292</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2563,48 +2567,60 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M39" t="n">
-        <v>-58.474354</v>
+        <v>-58.479695</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.629997</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-251</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>RINCON /ALT/ 645</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802269060</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2617,11 +2633,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Pasante con priroidad</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>1</t>
@@ -2643,16 +2655,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.479695</v>
+        <v>-58.396131</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.622867</v>
+        <v>-34.616584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-251</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2662,17 +2674,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 645</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>802269060</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2707,36 +2719,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.396131</v>
+        <v>-58.369292</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.616584</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2762,7 +2774,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2771,36 +2783,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.369292</v>
+        <v>-58.442667</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.631678</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2813,7 +2825,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>1</t>
@@ -2826,7 +2842,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2835,36 +2851,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.442667</v>
+        <v>-58.452317</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.597977</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2877,11 +2893,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
@@ -2903,16 +2915,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.452317</v>
+        <v>-58.383027</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.567846</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2922,17 +2934,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2945,7 +2957,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Base picada</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>1</t>
@@ -2967,36 +2983,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.383027</v>
+        <v>-58.480871</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.618818</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3011,7 +3027,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3035,36 +3051,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.480871</v>
+        <v>-58.407076</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.616598</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DEAN FUNES /ALT/ 481</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>803039902</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3079,7 +3095,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3103,77 +3119,9 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.407076</v>
+        <v>-58.372751</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.616016</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>AZARA 15</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N48" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,7 +1376,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-172</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 847</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799539432</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recambio de Columna Rincon 847/53 dar prioridad </t>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1423,16 +1423,16 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.396012</v>
+        <v>-58.397535</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.619111</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1479,16 +1479,16 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.397535</v>
+        <v>-58.390647</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.588772</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1498,17 +1498,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>USPALLATA /ALT/ 3504</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106563 - NUEVA POMPEYA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>799539706</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>poste inclinado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1535,16 +1535,16 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.390647</v>
+        <v>-58.412993</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.587717</v>
+        <v>-34.641044</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-185</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1554,17 +1554,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>799539772</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1591,16 +1591,16 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.412993</v>
+        <v>-58.488262</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.641044</v>
+        <v>-34.631542</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539772</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1647,16 +1647,16 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.488262</v>
+        <v>-58.477557</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.631542</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1691,28 +1691,28 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.477557</v>
+        <v>-58.448465</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.622154</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-188</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1722,17 +1722,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>JUFRE /ALT/ 697</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>799539833</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1747,28 +1747,28 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>- alt correcta 704</t>
+          <t>Recambio de columna  - alt correcta 690</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.448465</v>
+        <v>-58.434727</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.575944</v>
+        <v>-34.593053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-191</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1778,17 +1778,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JUFRE /ALT/ 697</t>
+          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799539833</t>
+          <t>799539921</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Recambio de columna  - alt correcta 690</t>
+          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1815,16 +1815,16 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.434727</v>
+        <v>-58.469143</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.593053</v>
+        <v>-34.610581</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-191</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1834,17 +1834,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799539921</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1871,16 +1871,16 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.469143</v>
+        <v>-58.485782</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.610581</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1915,28 +1915,28 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.485782</v>
+        <v>-58.486971</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.547305</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1969,30 +1969,26 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Columna picada en base, informa el GCBA</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.486971</v>
+        <v>-58.500508</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.550135</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2002,7 +1998,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2012,7 +2008,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2035,16 +2031,16 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.500508</v>
+        <v>-58.484555</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.563097</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2054,7 +2050,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2064,7 +2060,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2077,7 +2073,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>0</t>
@@ -2087,16 +2087,16 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.484555</v>
+        <v>-58.493565</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.547242</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2129,11 +2129,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
           <t>0</t>
@@ -2143,16 +2139,16 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.493565</v>
+        <v>-58.480334</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.554439</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2162,17 +2158,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2181,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2195,36 +2195,36 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.480334</v>
+        <v>-58.466988</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.556445</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2237,11 +2237,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
@@ -2251,36 +2247,36 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.466988</v>
+        <v>-58.471173</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.537094</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2293,7 +2289,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>0</t>
@@ -2303,36 +2303,36 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>-58.471173</v>
+        <v>-58.395465</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.60704</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2359,36 +2359,36 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>-58.395465</v>
+        <v>-58.439714</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.622784</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2401,11 +2401,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Colocar columna medianera 213/15</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
           <t>0</t>
@@ -2415,16 +2411,16 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-58.439714</v>
+        <v>-58.413407</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.600565</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2434,17 +2430,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2457,7 +2453,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en base sin riego </t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>0</t>
@@ -2467,36 +2467,36 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-58.413407</v>
+        <v>-58.474354</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.602292</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2511,48 +2511,60 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M38" t="n">
-        <v>-58.474354</v>
+        <v>-58.479695</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.629997</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2565,11 +2577,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Pasante con priroidad</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>1</t>
@@ -2591,36 +2599,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.479695</v>
+        <v>-58.369292</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.622867</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-251</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 645</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>802269060</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2646,7 +2654,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2655,36 +2663,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.396131</v>
+        <v>-58.442667</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.616584</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2697,7 +2705,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>1</t>
@@ -2719,36 +2731,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.369292</v>
+        <v>-58.452317</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.631678</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2774,7 +2786,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2783,36 +2795,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.442667</v>
+        <v>-58.383027</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.597977</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2827,7 +2839,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2851,36 +2863,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.452317</v>
+        <v>-58.480871</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.567846</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2893,7 +2905,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
@@ -2915,36 +2931,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.383027</v>
+        <v>-58.407076</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.618818</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2959,7 +2975,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2983,145 +2999,9 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.480871</v>
+        <v>-58.372751</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.616598</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>-275</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2/3/2025</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>DEAN FUNES /ALT/ 481</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>106558 - BALVANERA</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>803039902</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>-58.407076</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-34.616016</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>AZARA 15</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N47" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,7 +1544,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-185</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1554,17 +1554,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AVELLANEDA ,AV. /ALT/ 4363</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539772</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cambiar poste no tiene riesgo de caída se sujetó a poste eléctrico para que tenga mayor firmeza</t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1591,16 +1591,16 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.488262</v>
+        <v>-58.477557</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.631542</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1635,28 +1635,28 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.477557</v>
+        <v>-58.448465</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.622154</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1691,28 +1691,28 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>- alt correcta 704</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.448465</v>
+        <v>-58.485782</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.575944</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-188</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1722,17 +1722,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JUFRE /ALT/ 697</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799539833</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1747,28 +1747,28 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Recambio de columna  - alt correcta 690</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.434727</v>
+        <v>-58.486971</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.593053</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-191</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1778,17 +1778,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ESCALADA REMEDIOS DE /ALT/ 2141</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799539921</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1801,11 +1801,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Remedios Escalada de San Martin 2141. Cambiar columna de 114. Cambiar rienda transferir tendido.</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
           <t>0</t>
@@ -1815,16 +1811,16 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.469143</v>
+        <v>-58.500508</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.610581</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1834,7 +1830,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1844,7 +1840,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1857,11 +1853,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>0</t>
@@ -1871,16 +1863,16 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.485782</v>
+        <v>-58.484555</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.547305</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1890,7 +1882,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1900,7 +1892,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1915,28 +1907,28 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna picada en base, informa el GCBA</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.486971</v>
+        <v>-58.493565</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.550135</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1946,7 +1938,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1956,7 +1948,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1979,16 +1971,16 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.500508</v>
+        <v>-58.480334</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.563097</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1998,17 +1990,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2021,7 +2013,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>0</t>
@@ -2031,36 +2027,36 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.484555</v>
+        <v>-58.466988</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.547242</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2073,11 +2069,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>0</t>
@@ -2087,36 +2079,36 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.493565</v>
+        <v>-58.471173</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.554439</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2129,7 +2121,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>0</t>
@@ -2139,36 +2135,36 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.480334</v>
+        <v>-58.395465</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.556445</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2183,7 +2179,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2195,36 +2191,36 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.466988</v>
+        <v>-58.439714</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.537094</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2247,36 +2243,36 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.471173</v>
+        <v>-58.413407</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.60704</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2291,7 +2287,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Podrida en base sin riego </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2303,36 +2299,36 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>-58.395465</v>
+        <v>-58.474354</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.622784</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2347,48 +2343,60 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Colocar columna medianera 213/15</t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M35" t="n">
-        <v>-58.439714</v>
+        <v>-58.479695</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.600565</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-252</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>1/2/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>LIBERTI TOMAS /ALT/ 1110</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>802269071</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2404,43 +2412,55 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M36" t="n">
-        <v>-58.413407</v>
+        <v>-58.369292</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.602292</v>
+        <v>-34.631678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2453,50 +2473,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M37" t="n">
-        <v>-58.474354</v>
+        <v>-58.442667</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.629997</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2511,7 +2539,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pasante con priroidad</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2535,36 +2563,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.479695</v>
+        <v>-58.452317</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.622867</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2599,36 +2627,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.369292</v>
+        <v>-58.383027</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.631678</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2641,7 +2669,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Base picada</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>1</t>
@@ -2654,7 +2686,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2663,36 +2695,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.442667</v>
+        <v>-58.480871</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.597977</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2707,7 +2739,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2731,36 +2763,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.452317</v>
+        <v>-58.407076</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.567846</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2773,7 +2805,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>1</t>
@@ -2795,213 +2831,9 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.383027</v>
+        <v>-58.372751</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.618818</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>-271</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1/27/2025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>HELGUERA /ALT/ 1405</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>106580 - SANTA RITA</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>802925468</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Base picada</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>-58.480871</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-34.616598</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>-275</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2/3/2025</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>DEAN FUNES /ALT/ 481</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>106558 - BALVANERA</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>803039902</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>-58.407076</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-34.616016</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>AZARA 15</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N45" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1220,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-161</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1230,17 +1230,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WARNES ,AV. /ALT/ 1605</t>
+          <t>URQUIZA 1692</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106583 - CHACARITA</t>
+          <t>106557 - PQUE. PATRICIOS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>798984631</t>
+          <t>798985154</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1263,36 +1263,36 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.458267</v>
+        <v>-58.408201</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.596836</v>
+        <v>-34.630629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-161</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>11/4/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>URQUIZA 1692</t>
+          <t>CESPEDES /ALT/ 3053</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>798985154</t>
+          <t>799124270</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1315,36 +1315,36 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.408201</v>
+        <v>-58.452409</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.630629</v>
+        <v>-34.574767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-162</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/4/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CESPEDES /ALT/ 3053</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799124270</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1357,7 +1357,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>0</t>
@@ -1367,16 +1371,16 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.452409</v>
+        <v>-58.397535</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.574767</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1386,7 +1390,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1396,7 +1400,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1411,7 +1415,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1423,16 +1427,16 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.397535</v>
+        <v>-58.390647</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.588772</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-178</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1442,17 +1446,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>USPALLATA /ALT/ 3504</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106563 - NUEVA POMPEYA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>799539706</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1467,7 +1471,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>poste inclinado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1479,16 +1483,16 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.390647</v>
+        <v>-58.412993</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.587717</v>
+        <v>-34.641044</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1498,17 +1502,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1523,7 +1527,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1535,16 +1539,16 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.412993</v>
+        <v>-58.477557</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.641044</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1554,17 +1558,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1579,28 +1583,28 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.477557</v>
+        <v>-58.448465</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.622154</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1610,17 +1614,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1635,28 +1639,28 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>- alt correcta 704</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.448465</v>
+        <v>-58.485782</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.575944</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1666,7 +1670,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1676,7 +1680,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1691,28 +1695,28 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.485782</v>
+        <v>-58.486971</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.547305</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1722,7 +1726,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1732,7 +1736,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1745,30 +1749,26 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Columna picada en base, informa el GCBA</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.486971</v>
+        <v>-58.500508</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.550135</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1811,16 +1811,16 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.500508</v>
+        <v>-58.484555</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.563097</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1853,7 +1853,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Poste quebrado</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>0</t>
@@ -1863,16 +1867,16 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.484555</v>
+        <v>-58.493565</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.547242</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1882,7 +1886,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1892,7 +1896,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1905,11 +1909,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>0</t>
@@ -1919,16 +1919,16 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.493565</v>
+        <v>-58.480334</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.554439</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1938,17 +1938,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1961,7 +1961,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>0</t>
@@ -1971,36 +1975,36 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.480334</v>
+        <v>-58.466988</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.556445</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2013,11 +2017,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
           <t>0</t>
@@ -2027,36 +2027,36 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.466988</v>
+        <v>-58.471173</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.537094</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2069,7 +2069,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>0</t>
@@ -2079,36 +2083,36 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.471173</v>
+        <v>-58.395465</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.60704</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2123,7 +2127,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2135,36 +2139,36 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.395465</v>
+        <v>-58.439714</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.622784</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2177,11 +2181,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Colocar columna medianera 213/15</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2191,16 +2191,16 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.439714</v>
+        <v>-58.413407</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.600565</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2233,7 +2233,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en base sin riego </t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
@@ -2243,36 +2247,36 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.413407</v>
+        <v>-58.474354</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.602292</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2287,48 +2291,60 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M34" t="n">
-        <v>-58.474354</v>
+        <v>-58.479695</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.629997</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2341,11 +2357,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Pasante con priroidad</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>1</t>
@@ -2358,7 +2370,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2367,36 +2379,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.479695</v>
+        <v>-58.442667</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.622867</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-252</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1/2/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LIBERTI TOMAS /ALT/ 1110</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>802269071</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2421,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>1</t>
@@ -2431,36 +2447,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.369292</v>
+        <v>-58.452317</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.631678</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>SALTA SUR /ALT/ 917</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>802925467</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2486,7 +2502,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2495,36 +2511,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.442667</v>
+        <v>-58.383027</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.597977</v>
+        <v>-34.618818</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2539,7 +2555,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2563,36 +2579,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.452317</v>
+        <v>-58.480871</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.567846</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-270</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SALTA SUR /ALT/ 917</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>802925467</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2605,7 +2621,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>1</t>
@@ -2627,36 +2647,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.383027</v>
+        <v>-58.407076</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.618818</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2671,7 +2691,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2695,145 +2715,9 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.480871</v>
+        <v>-58.372751</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.616598</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>-275</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2/3/2025</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>DEAN FUNES /ALT/ 481</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>106558 - BALVANERA</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>803039902</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>-58.407076</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-34.616016</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>AZARA 15</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N42" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,27 +1168,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-145</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/8/2024</t>
+          <t>11/4/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMBERTO PRIMO /ALT/ 2849</t>
+          <t>CESPEDES /ALT/ 3053</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>797811738</t>
+          <t>799124270</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1211,36 +1211,36 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-58.405077</v>
+        <v>-58.452409</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.622822</v>
+        <v>-34.574767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-161</t>
+          <t>-173</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>URQUIZA 1692</t>
+          <t>PACHECO DE MELO J A /ALT/ 2300</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>798985154</t>
+          <t>799539473</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1253,7 +1253,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>0</t>
@@ -1263,36 +1267,36 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.408201</v>
+        <v>-58.397535</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.630629</v>
+        <v>-34.588772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-162</t>
+          <t>-174</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/4/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CESPEDES /ALT/ 3053</t>
+          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799124270</t>
+          <t>799539617</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1305,7 +1309,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>0</t>
@@ -1315,16 +1323,16 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.452409</v>
+        <v>-58.390647</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.574767</v>
+        <v>-34.587717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-173</t>
+          <t>-186</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1334,17 +1342,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO J A /ALT/ 2300</t>
+          <t>GAONA ,AV. /ALT/ 3757</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799539473</t>
+          <t>799539793</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1359,7 +1367,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
+          <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1371,16 +1379,16 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.397535</v>
+        <v>-58.477557</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.588772</v>
+        <v>-34.622154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-174</t>
+          <t>-187</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1390,17 +1398,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>QUINTANA PTE M ,AV. /ALT/ 591</t>
+          <t>ZAPIOLA /ALT/ 703</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799539617</t>
+          <t>799539824</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1415,28 +1423,28 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
+          <t>- alt correcta 704</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.390647</v>
+        <v>-58.448465</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.587717</v>
+        <v>-34.575944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-178</t>
+          <t>-195</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1446,17 +1454,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>USPALLATA /ALT/ 3504</t>
+          <t>ARIAS /ALT/ 3701</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106563 - NUEVA POMPEYA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539706</t>
+          <t>799540358</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1471,7 +1479,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>poste inclinado</t>
+          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1483,16 +1491,16 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.412993</v>
+        <v>-58.485782</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.641044</v>
+        <v>-34.547305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-186</t>
+          <t>-196</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1502,17 +1510,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GAONA ,AV. /ALT/ 3757</t>
+          <t>CORREA CIRILO /ALT/ 3868</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539793</t>
+          <t>799540449</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1527,28 +1535,28 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Gaona 3757 columna podrida</t>
+          <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.477557</v>
+        <v>-58.486971</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.622154</v>
+        <v>-34.550135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-187</t>
+          <t>-197</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1558,17 +1566,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ZAPIOLA /ALT/ 703</t>
+          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539824</t>
+          <t>799540455</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1581,30 +1589,26 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>- alt correcta 704</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.448465</v>
+        <v>-58.500508</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.575944</v>
+        <v>-34.563097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-195</t>
+          <t>-198</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1614,7 +1618,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 3701</t>
+          <t>PEREZ ROQUE /ALT/ 4548</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1624,7 +1628,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799540358</t>
+          <t>799540475</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1637,11 +1641,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>0</t>
@@ -1651,16 +1651,16 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.485782</v>
+        <v>-58.484555</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.547305</v>
+        <v>-34.547242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-199</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CORREA CIRILO /ALT/ 3868</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799540449</t>
+          <t>799540477</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1695,28 +1695,28 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Columna picada en base, informa el GCBA</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.486971</v>
+        <v>-58.493565</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.550135</v>
+        <v>-34.554439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-197</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LOPEZ BUCHARDO C /ALT/ 5606</t>
+          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799540455</t>
+          <t>799540489</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1759,16 +1759,16 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.500508</v>
+        <v>-58.480334</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.563097</v>
+        <v>-34.556445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-198</t>
+          <t>-209</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1778,17 +1778,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PEREZ ROQUE /ALT/ 4548</t>
+          <t>PICO /ALT/ 1654</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799540475</t>
+          <t>799540564</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1801,7 +1801,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>0</t>
@@ -1811,36 +1815,36 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.484555</v>
+        <v>-58.466988</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.547242</v>
+        <v>-34.537094</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-199</t>
+          <t>-211</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4661</t>
+          <t>BOYACA ,AV. /ALT/ 2030</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106584 - VILLA GRAL. MITRE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799540477</t>
+          <t>799488822</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1853,11 +1857,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Poste quebrado</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>0</t>
@@ -1867,36 +1867,36 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.493565</v>
+        <v>-58.471173</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.554439</v>
+        <v>-34.60704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-218</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>9/26/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BALBIN RICARDO ,AV. /ALT/ 3528</t>
+          <t>RINCON /ALT/ 1191</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799540489</t>
+          <t>797118027</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1909,7 +1909,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>0</t>
@@ -1919,36 +1923,36 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.480334</v>
+        <v>-58.395465</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.556445</v>
+        <v>-34.622784</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-209</t>
+          <t>-225</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/19/2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PICO /ALT/ 1654</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799540564</t>
+          <t>800498182</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1963,7 +1967,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
+          <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1975,36 +1979,36 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.466988</v>
+        <v>-58.439714</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.537094</v>
+        <v>-34.600565</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BOYACA ,AV. /ALT/ 2030</t>
+          <t>GUARDIA VIEJA /ALT/ 3457</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799488822</t>
+          <t>801645807</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2027,36 +2031,36 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.471173</v>
+        <v>-58.413407</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.60704</v>
+        <v>-34.602292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-218</t>
+          <t>-241</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/26/2024</t>
+          <t>12/16/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1191</t>
+          <t>CUENCA /ALT/ 116</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>797118027</t>
+          <t>801679775</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2071,7 +2075,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Podrida en base sin riego </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2083,36 +2087,36 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.395465</v>
+        <v>-58.474354</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.622784</v>
+        <v>-34.629997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-225</t>
+          <t>-247</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11/19/2024</t>
+          <t>12/26/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 213</t>
+          <t>CONCORDIA /ALT/ 925</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106580 - SANTA RITA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>800498182</t>
+          <t>802055232</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2127,48 +2131,60 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colocar columna medianera 213/15</t>
+          <t>Pasante con priroidad</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M31" t="n">
-        <v>-58.439714</v>
+        <v>-58.479695</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.600565</v>
+        <v>-34.622867</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-235</t>
+          <t>-255</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>1/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA /ALT/ 3457</t>
+          <t>GURRUCHAGA /ALT/ 408</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>801645807</t>
+          <t>802393948</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2184,43 +2200,55 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M32" t="n">
-        <v>-58.413407</v>
+        <v>-58.442667</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.602292</v>
+        <v>-34.597977</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-241</t>
+          <t>-258</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/16/2024</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 116</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>801679775</t>
+          <t>802608477</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2235,38 +2263,50 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en base sin riego </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M33" t="n">
-        <v>-58.474354</v>
+        <v>-58.452317</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.629997</v>
+        <v>-34.567846</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-247</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/26/2024</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CONCORDIA /ALT/ 925</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2276,7 +2316,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>802055232</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2291,7 +2331,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pasante con priroidad</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2315,36 +2355,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.479695</v>
+        <v>-58.480871</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.622867</v>
+        <v>-34.616598</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1/8/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GURRUCHAGA /ALT/ 408</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>802393948</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2357,7 +2397,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>1</t>
@@ -2370,7 +2414,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2379,36 +2423,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.442667</v>
+        <v>-58.407076</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.597977</v>
+        <v>-34.616016</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-258</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 1465</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>802608477</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2447,277 +2491,9 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.452317</v>
+        <v>-58.372751</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.567846</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>-270</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1/27/2025</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SALTA SUR /ALT/ 917</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>106552 - CONSTITUCION</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>802925467</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>-58.383027</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-34.618818</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>-271</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1/27/2025</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>HELGUERA /ALT/ 1405</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>106580 - SANTA RITA</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>802925468</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Base picada</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>-58.480871</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-34.616598</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>-275</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2/3/2025</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>DEAN FUNES /ALT/ 481</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>106558 - BALVANERA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>803039902</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>-58.407076</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-34.616016</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>5/4/2025</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>AZARA 15</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>805655333</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>-58.372751</v>
-      </c>
-      <c r="N40" t="n">
         <v>-34.631917</v>
       </c>
     </row>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
           <t>Coordenada_Y</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Zona</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -560,6 +570,16 @@
       <c r="N2" t="n">
         <v>-34.625079</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -612,6 +632,16 @@
       <c r="N3" t="n">
         <v>-34.591084</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -668,6 +698,16 @@
       <c r="N4" t="n">
         <v>-34.55025</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -724,6 +764,16 @@
       <c r="N5" t="n">
         <v>-34.572157</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -780,6 +830,16 @@
       <c r="N6" t="n">
         <v>-34.637568</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -832,6 +892,16 @@
       <c r="N7" t="n">
         <v>-34.586358</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -888,6 +958,16 @@
       <c r="N8" t="n">
         <v>-34.563809</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -944,6 +1024,16 @@
       <c r="N9" t="n">
         <v>-34.621209</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1000,6 +1090,16 @@
       <c r="N10" t="n">
         <v>-34.622784</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1056,6 +1156,16 @@
       <c r="N11" t="n">
         <v>-34.61051</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1112,6 +1222,16 @@
       <c r="N12" t="n">
         <v>-34.623154</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1164,6 +1284,16 @@
       <c r="N13" t="n">
         <v>-34.621686</v>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1216,6 +1346,16 @@
       <c r="N14" t="n">
         <v>-34.574767</v>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1272,6 +1412,16 @@
       <c r="N15" t="n">
         <v>-34.588772</v>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1328,6 +1478,16 @@
       <c r="N16" t="n">
         <v>-34.587717</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1384,6 +1544,16 @@
       <c r="N17" t="n">
         <v>-34.622154</v>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1440,6 +1610,16 @@
       <c r="N18" t="n">
         <v>-34.575944</v>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1496,6 +1676,16 @@
       <c r="N19" t="n">
         <v>-34.547305</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1552,6 +1742,16 @@
       <c r="N20" t="n">
         <v>-34.550135</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1604,6 +1804,16 @@
       <c r="N21" t="n">
         <v>-34.563097</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1656,6 +1866,16 @@
       <c r="N22" t="n">
         <v>-34.547242</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1712,6 +1932,16 @@
       <c r="N23" t="n">
         <v>-34.554439</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1764,6 +1994,16 @@
       <c r="N24" t="n">
         <v>-34.556445</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1820,6 +2060,16 @@
       <c r="N25" t="n">
         <v>-34.537094</v>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1872,6 +2122,16 @@
       <c r="N26" t="n">
         <v>-34.60704</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1928,6 +2188,16 @@
       <c r="N27" t="n">
         <v>-34.622784</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1984,6 +2254,16 @@
       <c r="N28" t="n">
         <v>-34.600565</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2036,6 +2316,16 @@
       <c r="N29" t="n">
         <v>-34.602292</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2092,6 +2382,16 @@
       <c r="N30" t="n">
         <v>-34.629997</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2160,6 +2460,16 @@
       <c r="N31" t="n">
         <v>-34.622867</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2224,6 +2534,16 @@
       <c r="N32" t="n">
         <v>-34.597977</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2292,6 +2612,16 @@
       <c r="N33" t="n">
         <v>-34.567846</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2360,6 +2690,16 @@
       <c r="N34" t="n">
         <v>-34.616598</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2428,6 +2768,16 @@
       <c r="N35" t="n">
         <v>-34.616016</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2495,6 +2845,16 @@
       </c>
       <c r="N36" t="n">
         <v>-34.631917</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106557 - PQUE. PATRICIOS</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106584 - VILLA GRAL. MITRE</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106580 - SANTA RITA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">

--- a/mapa_interactivo_INCO.xlsx
+++ b/mapa_interactivo_INCO.xlsx
@@ -556,10 +556,8 @@
           <t>Direccion correcta 1736</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -618,10 +616,8 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -684,10 +680,8 @@
           <t>cambiar poste urgente se saca peligro . Calle Pico 4686. Solicita Fernando Martorelli.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -750,10 +744,8 @@
           <t>ZABALA 2836 - Reemplazar C114</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -816,10 +808,8 @@
           <t xml:space="preserve">Poste metal cv con base con leve corrosión y superficie inclinada sin riesgo de caída </t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -878,10 +868,8 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -944,10 +932,8 @@
           <t>Para cambiar columna fte al 3688</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1010,10 +996,8 @@
           <t>Cambio de columna.-</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1076,10 +1060,8 @@
           <t>recambio de columna podrida en la base</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1142,10 +1124,8 @@
           <t>Cambio de columna.-</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1208,10 +1188,8 @@
           <t>Cambio de columna.-</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1270,10 +1248,8 @@
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1332,10 +1308,8 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1398,10 +1372,8 @@
           <t xml:space="preserve">Poste metal con inclinación en superficie y un poco de corrosión en base sin riesgo caída por lo cual dicho poste está obstruyendo entrada al colegio a pocos metros de dicha entrada </t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1464,10 +1436,8 @@
           <t>P. Quintana 591 ¿ Cambiar C168 ¿ NEW.</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1530,10 +1500,8 @@
           <t>Gaona 3757 columna podrida</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1596,10 +1564,8 @@
           <t>- alt correcta 704</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1662,10 +1628,8 @@
           <t>Retirar poste y colocar columna a plomo, traspasar linda de poste a columna. Arias esquina Melian casa 166. Solicita Horacio Alvarez.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I19" t="n">
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1728,10 +1692,8 @@
           <t>Columna picada en base, informa el GCBA</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1790,10 +1752,8 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I21" t="n">
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1852,10 +1812,8 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1918,10 +1876,8 @@
           <t>Poste quebrado</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1980,10 +1936,8 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I24" t="n">
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2046,10 +2000,8 @@
           <t>Pico 1654 / 1650 cambiar columna 114 efectuar transferencias contactar a Telecentro para transferir el Nodo</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I25" t="n">
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2108,10 +2060,8 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I26" t="n">
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2174,10 +2124,8 @@
           <t>Cambiar</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I27" t="n">
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2240,10 +2188,8 @@
           <t>Colocar columna medianera 213/15</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I28" t="n">
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2302,10 +2248,8 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I29" t="n">
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -2368,10 +2312,8 @@
           <t xml:space="preserve">Podrida en base sin riego </t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I30" t="n">
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2434,10 +2376,8 @@
           <t>Pasante con priroidad</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I31" t="n">
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2508,10 +2448,8 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I32" t="n">
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2586,10 +2524,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2664,10 +2600,8 @@
           <t>Base picada</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I34" t="n">
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2742,10 +2676,8 @@
           <t xml:space="preserve">Propia diámetro 114mm </t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I35" t="n">
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2820,10 +2752,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I36" t="n">
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
